--- a/data/trans_dic/P02E$contratada-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P02E$contratada-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -795,27 +796,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,69</t>
+          <t>0,0; 6,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,77</t>
+          <t>0,44; 3,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,96</t>
+          <t>0,0; 3,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,0; 2,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,18</t>
+          <t>0,0; 3,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,17 +826,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,57</t>
+          <t>0,35; 2,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,43</t>
+          <t>0,32; 2,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,15</t>
+          <t>0,0; 1,31</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,66</t>
+          <t>0,62; 4,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 4,01</t>
+          <t>0,67; 3,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,05</t>
+          <t>0,34; 3,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,44</t>
+          <t>1,1; 4,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,85</t>
+          <t>0,52; 2,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,98</t>
+          <t>1,15; 4,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,41</t>
+          <t>1,17; 3,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,86</t>
+          <t>0,85; 2,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,15</t>
+          <t>1,01; 3,2</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,15</t>
+          <t>0,0; 4,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,73</t>
+          <t>0,42; 4,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 9,4</t>
+          <t>2,02; 8,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,32</t>
+          <t>0,0; 7,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,14</t>
+          <t>0,42; 4,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,39</t>
+          <t>0,6; 5,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,01</t>
+          <t>0,39; 4,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,85</t>
+          <t>0,66; 3,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 5,68</t>
+          <t>1,59; 5,67</t>
         </is>
       </c>
     </row>
@@ -1135,37 +1136,37 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,84</t>
+          <t>0,0; 19,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,81</t>
+          <t>0,0; 7,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 13,78</t>
+          <t>2,49; 13,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,85</t>
+          <t>0,0; 7,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,87</t>
+          <t>0,0; 7,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,96; 9,53</t>
+          <t>1,98; 8,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 9,5</t>
+          <t>0,96; 8,75</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,49</t>
+          <t>0,0; 42,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,5</t>
+          <t>0,0; 29,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,47</t>
+          <t>0,0; 22,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,16</t>
+          <t>0,0; 11,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,43</t>
+          <t>0,0; 8,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,88; 26,19</t>
+          <t>2,95; 24,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,69; 13,56</t>
+          <t>1,69; 12,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,38; 11,83</t>
+          <t>1,37; 11,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,4; 18,03</t>
+          <t>3,56; 20,25</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,14</t>
+          <t>0,0; 22,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,62</t>
+          <t>0,0; 29,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,1</t>
+          <t>0,0; 35,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,4</t>
+          <t>0,0; 22,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,14; 26,71</t>
+          <t>5,28; 27,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,73; 22,82</t>
+          <t>2,8; 24,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,91</t>
+          <t>0,0; 15,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,5; 23,07</t>
+          <t>4,03; 22,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,55; 20,55</t>
+          <t>3,49; 19,24</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,38</t>
+          <t>0,84; 3,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,86</t>
+          <t>0,99; 2,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,67</t>
+          <t>1,37; 3,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,79</t>
+          <t>0,97; 2,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,7</t>
+          <t>1,22; 2,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,02</t>
+          <t>1,29; 3,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,65</t>
+          <t>1,1; 2,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,47</t>
+          <t>1,32; 2,47</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,55; 2,92</t>
+          <t>1,56; 2,94</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con ayuda al cuidado por parte de, al menos, una persona externa contratada</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1909</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1911</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2048</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1825</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1948</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1872</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1883</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1954</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1942</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2679</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2855</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2198</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3598</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4877</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6452</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10218</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>933; 6747</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6049</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7517</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 12353</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1871</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1637; 12802</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1918; 14742</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6136</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7693</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4492</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>9385</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7672</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9236</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13944</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15364</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13728</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1688; 12127</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2787; 15805</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1051; 10646</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4317; 17740</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2997; 16560</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4699; 17032</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7777; 24193</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8448; 26326</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7243; 22992</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3095</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7395</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2735</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4286</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4269</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3633</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7381</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>11664</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4517</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>956; 9300</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3165; 13787</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 9466</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1092; 10821</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1085; 9622</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>900; 10412</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3215; 15381</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5388; 19215</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2173</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1228</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6575</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>968</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1228</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6575</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3141</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1891</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2042</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7671</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4980</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2499; 13688</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4155</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6494</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2960; 13338</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>934; 8492</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2099</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2053</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1053</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>981</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4174</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3152</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3034</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>5126</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5985</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6669</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4801</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5220</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4011</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1076; 9010</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1033; 7788</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>954; 8012</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2054; 11686</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>5509</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3892</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>6514</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>5482</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 3586</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4439</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4460</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5675</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2178; 11176</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1257; 10962</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6558</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2267; 12862</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2002; 11032</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>11056</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>16701</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>17618</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>17725</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>28619</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>22539</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>28781</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>45320</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>40157</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>5288; 20210</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>9777; 27556</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>10375; 27925</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>9755; 28288</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>18523; 42096</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>14305; 33665</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>17969; 41980</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>33115; 61772</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>29124; 54874</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>